--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H2">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I2">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J2">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N2">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O2">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P2">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q2">
-        <v>6708.953411230802</v>
+        <v>13828.51530166955</v>
       </c>
       <c r="R2">
-        <v>26835.81364492321</v>
+        <v>55314.06120667822</v>
       </c>
       <c r="S2">
-        <v>0.08639945990074245</v>
+        <v>0.1967113351496971</v>
       </c>
       <c r="T2">
-        <v>0.05327322616089265</v>
+        <v>0.1436648796823708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H3">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I3">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J3">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P3">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q3">
-        <v>1338.309698636601</v>
+        <v>2414.088478378656</v>
       </c>
       <c r="R3">
-        <v>8029.858191819606</v>
+        <v>14484.53087027193</v>
       </c>
       <c r="S3">
-        <v>0.01723506306491325</v>
+        <v>0.03434053167616863</v>
       </c>
       <c r="T3">
-        <v>0.01594050611443373</v>
+        <v>0.03762006150584307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H4">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I4">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J4">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N4">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O4">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P4">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q4">
-        <v>16.57040807618733</v>
+        <v>5.466473090865833</v>
       </c>
       <c r="R4">
-        <v>99.42244845712401</v>
+        <v>32.798838545195</v>
       </c>
       <c r="S4">
-        <v>0.0002133975629821577</v>
+        <v>7.776085840063275E-05</v>
       </c>
       <c r="T4">
-        <v>0.000197368883694274</v>
+        <v>8.518704088117192E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H5">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I5">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J5">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N5">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O5">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P5">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q5">
-        <v>976.9755414293712</v>
+        <v>1838.736513606816</v>
       </c>
       <c r="R5">
-        <v>3907.902165717485</v>
+        <v>7354.946054427263</v>
       </c>
       <c r="S5">
-        <v>0.01258171788381036</v>
+        <v>0.02615612064560733</v>
       </c>
       <c r="T5">
-        <v>0.007757788105235798</v>
+        <v>0.01910269137591453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H6">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I6">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J6">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N6">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O6">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P6">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q6">
-        <v>4364.271644834113</v>
+        <v>28.831654214305</v>
       </c>
       <c r="R6">
-        <v>26185.62986900468</v>
+        <v>172.98992528583</v>
       </c>
       <c r="S6">
-        <v>0.05620410365983092</v>
+        <v>0.0004101317510481829</v>
       </c>
       <c r="T6">
-        <v>0.05198251115597596</v>
+        <v>0.0004492994414131095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H7">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I7">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J7">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N7">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O7">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P7">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q7">
-        <v>9.2521802221355</v>
+        <v>24.1719097684</v>
       </c>
       <c r="R7">
-        <v>55.513081332813</v>
+        <v>145.0314586104</v>
       </c>
       <c r="S7">
-        <v>0.0001191517253285243</v>
+        <v>0.0003438466487494792</v>
       </c>
       <c r="T7">
-        <v>0.0001102020224115861</v>
+        <v>0.0003766840943674241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>24.148849</v>
       </c>
       <c r="I8">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J8">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N8">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O8">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P8">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q8">
-        <v>7123.277896024486</v>
+        <v>8139.619584582929</v>
       </c>
       <c r="R8">
-        <v>42739.66737614691</v>
+        <v>48837.71750749757</v>
       </c>
       <c r="S8">
-        <v>0.09173522682526794</v>
+        <v>0.1157865035518758</v>
       </c>
       <c r="T8">
-        <v>0.08484482700234952</v>
+        <v>0.1268441451706164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>24.148849</v>
       </c>
       <c r="I9">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J9">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P9">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q9">
         <v>1420.959620672693</v>
@@ -1013,10 +1013,10 @@
         <v>12788.63658605424</v>
       </c>
       <c r="S9">
-        <v>0.01829944795284568</v>
+        <v>0.0202132230451801</v>
       </c>
       <c r="T9">
-        <v>0.02538741467476319</v>
+        <v>0.03321538676345152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>24.148849</v>
       </c>
       <c r="I10">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J10">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N10">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O10">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P10">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q10">
-        <v>17.59374590075689</v>
+        <v>3.217627522430778</v>
       </c>
       <c r="R10">
-        <v>158.343713106812</v>
+        <v>28.958647701877</v>
       </c>
       <c r="S10">
-        <v>0.0002265763451139284</v>
+        <v>4.577091554256395E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003143366752768654</v>
+        <v>7.521307506800877E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>24.148849</v>
       </c>
       <c r="I11">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J11">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N11">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O11">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P11">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q11">
-        <v>1037.310568824426</v>
+        <v>1082.30098535848</v>
       </c>
       <c r="R11">
-        <v>6223.863412946554</v>
+        <v>6493.805912150879</v>
       </c>
       <c r="S11">
-        <v>0.01335872637686425</v>
+        <v>0.01539578669287767</v>
       </c>
       <c r="T11">
-        <v>0.01235532812902554</v>
+        <v>0.01686608838146906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>24.148849</v>
       </c>
       <c r="I12">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J12">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N12">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O12">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P12">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q12">
-        <v>4633.795740458121</v>
+        <v>16.97063583321533</v>
       </c>
       <c r="R12">
-        <v>41704.16166412309</v>
+        <v>152.735722498938</v>
       </c>
       <c r="S12">
-        <v>0.05967509754885812</v>
+        <v>0.0002414081598975442</v>
       </c>
       <c r="T12">
-        <v>0.08278918856643508</v>
+        <v>0.0003966940542301147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>24.148849</v>
       </c>
       <c r="I13">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J13">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N13">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O13">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P13">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q13">
-        <v>9.823566632024333</v>
+        <v>14.22785786149333</v>
       </c>
       <c r="R13">
-        <v>88.412099688219</v>
+        <v>128.05072075344</v>
       </c>
       <c r="S13">
-        <v>0.0001265101721954198</v>
+        <v>0.0002023920034218398</v>
       </c>
       <c r="T13">
-        <v>0.0001755116444155556</v>
+        <v>0.0003325807396702733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H14">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I14">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J14">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N14">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O14">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P14">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q14">
-        <v>6701.399279550313</v>
+        <v>8200.445833065971</v>
       </c>
       <c r="R14">
-        <v>40208.39567730188</v>
+        <v>49202.67499839583</v>
       </c>
       <c r="S14">
-        <v>0.08630217603883328</v>
+        <v>0.1166517600374945</v>
       </c>
       <c r="T14">
-        <v>0.07981986254733106</v>
+        <v>0.1277920338787546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H15">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I15">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J15">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P15">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q15">
-        <v>1336.802791810291</v>
+        <v>1431.578254881977</v>
       </c>
       <c r="R15">
-        <v>12031.22512629262</v>
+        <v>12884.20429393779</v>
       </c>
       <c r="S15">
-        <v>0.0172156567688886</v>
+        <v>0.02036427365814953</v>
       </c>
       <c r="T15">
-        <v>0.02388383619092744</v>
+        <v>0.03346360074295504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H16">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I16">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J16">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N16">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O16">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P16">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q16">
-        <v>16.55175016683334</v>
+        <v>3.241672406736667</v>
       </c>
       <c r="R16">
-        <v>148.9657515015</v>
+        <v>29.17505166063</v>
       </c>
       <c r="S16">
-        <v>0.0002131572820929859</v>
+        <v>4.61129552476334E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002957199761099121</v>
+        <v>7.577513194864306E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H17">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I17">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J17">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N17">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O17">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P17">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q17">
-        <v>975.8754887928125</v>
+        <v>1090.388870545835</v>
       </c>
       <c r="R17">
-        <v>5855.252932756875</v>
+        <v>6542.333223275011</v>
       </c>
       <c r="S17">
-        <v>0.01256755115051602</v>
+        <v>0.01551083727199154</v>
       </c>
       <c r="T17">
-        <v>0.01162357951367715</v>
+        <v>0.0169921263212238</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H18">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I18">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J18">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N18">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O18">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P18">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q18">
-        <v>4359.3575724485</v>
+        <v>17.09745504158</v>
       </c>
       <c r="R18">
-        <v>39234.2181520365</v>
+        <v>153.87709537422</v>
       </c>
       <c r="S18">
-        <v>0.05614081909456334</v>
+        <v>0.0002432121696018275</v>
       </c>
       <c r="T18">
-        <v>0.07788597001435249</v>
+        <v>0.0003996584938901757</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H19">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I19">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J19">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N19">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O19">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P19">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q19">
-        <v>9.241762473874999</v>
+        <v>14.3341806704</v>
       </c>
       <c r="R19">
-        <v>83.17586226487501</v>
+        <v>129.0076260336</v>
       </c>
       <c r="S19">
-        <v>0.0001190175631473438</v>
+        <v>0.0002039044507989181</v>
       </c>
       <c r="T19">
-        <v>0.0001651169060939655</v>
+        <v>0.0003350660694208399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H20">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I20">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J20">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N20">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O20">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P20">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q20">
-        <v>5993.418341940147</v>
+        <v>9550.497430362002</v>
       </c>
       <c r="R20">
-        <v>23973.67336776059</v>
+        <v>38201.98972144801</v>
       </c>
       <c r="S20">
-        <v>0.07718463312563578</v>
+        <v>0.1358563128352211</v>
       </c>
       <c r="T20">
-        <v>0.0475914365827209</v>
+        <v>0.0992204176882311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H21">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I21">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J21">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P21">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q21">
-        <v>1195.573944749376</v>
+        <v>1667.261112741314</v>
       </c>
       <c r="R21">
-        <v>7173.443668496258</v>
+        <v>10003.56667644788</v>
       </c>
       <c r="S21">
-        <v>0.01539687888200668</v>
+        <v>0.02371687432640848</v>
       </c>
       <c r="T21">
-        <v>0.01424039129055885</v>
+        <v>0.02598184207803108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H22">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I22">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J22">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N22">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O22">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P22">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q22">
-        <v>14.803111843198</v>
+        <v>3.775353757691833</v>
       </c>
       <c r="R22">
-        <v>88.81867105918802</v>
+        <v>22.652122546151</v>
       </c>
       <c r="S22">
-        <v>0.0001906379117138562</v>
+        <v>5.370459967226733E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001763187512498317</v>
+        <v>5.883340310131123E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H23">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I23">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J23">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N23">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O23">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P23">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q23">
-        <v>872.7774319952364</v>
+        <v>1269.901212474669</v>
       </c>
       <c r="R23">
-        <v>3491.109727980946</v>
+        <v>5079.604849898677</v>
       </c>
       <c r="S23">
-        <v>0.01123983043491002</v>
+        <v>0.01806440948754288</v>
       </c>
       <c r="T23">
-        <v>0.006930390878102014</v>
+        <v>0.01319304357110872</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H24">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I24">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J24">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N24">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O24">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P24">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q24">
-        <v>3898.805688763818</v>
+        <v>19.912234500949</v>
       </c>
       <c r="R24">
-        <v>23392.83413258291</v>
+        <v>119.473407005694</v>
       </c>
       <c r="S24">
-        <v>0.05020972499275976</v>
+        <v>0.0002832525509099762</v>
       </c>
       <c r="T24">
-        <v>0.04643838117891747</v>
+        <v>0.0003103032442073458</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H25">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I25">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J25">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N25">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O25">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P25">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q25">
-        <v>8.265400465213501</v>
+        <v>16.69403815912</v>
       </c>
       <c r="R25">
-        <v>49.592402791281</v>
+        <v>100.16422895472</v>
       </c>
       <c r="S25">
-        <v>0.0001064437464809851</v>
+        <v>0.0002374735438824739</v>
       </c>
       <c r="T25">
-        <v>9.84485629807539E-05</v>
+        <v>0.0002601523299381231</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H26">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I26">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J26">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N26">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O26">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P26">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q26">
-        <v>7109.748037498523</v>
+        <v>6997.116102130506</v>
       </c>
       <c r="R26">
-        <v>42658.48822499114</v>
+        <v>41982.69661278304</v>
       </c>
       <c r="S26">
-        <v>0.09156098616543271</v>
+        <v>0.09953433326868852</v>
       </c>
       <c r="T26">
-        <v>0.08468367387555066</v>
+        <v>0.1090398883401597</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H27">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I27">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J27">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P27">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q27">
-        <v>1418.260669021581</v>
+        <v>1221.509106042038</v>
       </c>
       <c r="R27">
-        <v>12764.34602119423</v>
+        <v>10993.58195437834</v>
       </c>
       <c r="S27">
-        <v>0.01826469022676519</v>
+        <v>0.01737602930648903</v>
       </c>
       <c r="T27">
-        <v>0.02533919415972738</v>
+        <v>0.02855316703021912</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H28">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I28">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J28">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N28">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O28">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P28">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q28">
-        <v>17.560328575692</v>
+        <v>2.765990856686</v>
       </c>
       <c r="R28">
-        <v>158.042957181228</v>
+        <v>24.893917710174</v>
       </c>
       <c r="S28">
-        <v>0.0002261459890419812</v>
+        <v>3.934636094771987E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003137396284105075</v>
+        <v>6.465592318907873E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H29">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I29">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J29">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N29">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O29">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P29">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q29">
-        <v>1035.340315038382</v>
+        <v>930.3856984111829</v>
       </c>
       <c r="R29">
-        <v>6212.041890230295</v>
+        <v>5582.314190467097</v>
       </c>
       <c r="S29">
-        <v>0.01333335299109941</v>
+        <v>0.01323478399134801</v>
       </c>
       <c r="T29">
-        <v>0.01233186058443896</v>
+        <v>0.0144987093521497</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H30">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I30">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J30">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N30">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O30">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P30">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q30">
-        <v>4624.994370959172</v>
+        <v>14.588582183484</v>
       </c>
       <c r="R30">
-        <v>41624.94933863255</v>
+        <v>131.297239651356</v>
       </c>
       <c r="S30">
-        <v>0.05956175146870453</v>
+        <v>0.0002075233252920326</v>
       </c>
       <c r="T30">
-        <v>0.08263193989171914</v>
+        <v>0.0003410127863629384</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H31">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I31">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J31">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N31">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O31">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P31">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q31">
-        <v>9.804907881279</v>
+        <v>12.23078944992</v>
       </c>
       <c r="R31">
-        <v>88.24417093151101</v>
+        <v>110.07710504928</v>
       </c>
       <c r="S31">
-        <v>0.0001262698804706151</v>
+        <v>0.0001739836034558329</v>
       </c>
       <c r="T31">
-        <v>0.0001751782799514335</v>
+        <v>0.0002858986251904282</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H32">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I32">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J32">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N32">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O32">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P32">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q32">
-        <v>5198.751682166904</v>
+        <v>6874.450401741304</v>
       </c>
       <c r="R32">
-        <v>31192.51009300143</v>
+        <v>41246.70241044783</v>
       </c>
       <c r="S32">
-        <v>0.06695073135332651</v>
+        <v>0.09778940742710382</v>
       </c>
       <c r="T32">
-        <v>0.06192194008713266</v>
+        <v>0.1071283216206174</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H33">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I33">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J33">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P33">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q33">
-        <v>1037.052930700096</v>
+        <v>1200.094959436866</v>
       </c>
       <c r="R33">
-        <v>9333.476376300867</v>
+        <v>10800.85463493179</v>
       </c>
       <c r="S33">
-        <v>0.01335540845327357</v>
+        <v>0.01707141197932838</v>
       </c>
       <c r="T33">
-        <v>0.01852838913107037</v>
+        <v>0.02805260448688427</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H34">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I34">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J34">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N34">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O34">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P34">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q34">
-        <v>12.84036891895289</v>
+        <v>2.717500564292223</v>
       </c>
       <c r="R34">
-        <v>115.563320270576</v>
+        <v>24.45750507863</v>
       </c>
       <c r="S34">
-        <v>0.0001653612525713282</v>
+        <v>3.865658406636316E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002294110019594185</v>
+        <v>6.352244705597814E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H35">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I35">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J35">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N35">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O35">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P35">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q35">
-        <v>757.0559710460234</v>
+        <v>914.0752053935017</v>
       </c>
       <c r="R35">
-        <v>4542.33582627614</v>
+        <v>5484.451232361011</v>
       </c>
       <c r="S35">
-        <v>0.009749542589387096</v>
+        <v>0.01300276639665579</v>
       </c>
       <c r="T35">
-        <v>0.009017236703673142</v>
+        <v>0.01424453401598808</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H36">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I36">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J36">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N36">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O36">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P36">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q36">
-        <v>3381.863483659557</v>
+        <v>14.33283129624667</v>
       </c>
       <c r="R36">
-        <v>30436.77135293602</v>
+        <v>128.99548166622</v>
       </c>
       <c r="S36">
-        <v>0.04355242323744572</v>
+        <v>0.0002038852558827952</v>
       </c>
       <c r="T36">
-        <v>0.06042168220970217</v>
+        <v>0.0003350345273673293</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H37">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I37">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J37">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N37">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O37">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P37">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q37">
-        <v>7.169491952801334</v>
+        <v>12.01637277706667</v>
       </c>
       <c r="R37">
-        <v>64.52542757521201</v>
+        <v>108.1473549936</v>
       </c>
       <c r="S37">
-        <v>9.23303821797019E-05</v>
+        <v>0.0001709335153534433</v>
       </c>
       <c r="T37">
-        <v>0.0001280929187326083</v>
+        <v>0.0002808865667098471</v>
       </c>
     </row>
   </sheetData>
